--- a/2. Hardware PCB/REV_4.0/BOM GERAL/BOM_REV4.xlsx
+++ b/2. Hardware PCB/REV_4.0/BOM GERAL/BOM_REV4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="408">
   <si>
     <t>Comment</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>R 0018 3W 6432 1%</t>
+  </si>
+  <si>
+    <t>71-WSHP2818R0400FEA</t>
+  </si>
+  <si>
+    <t>R 0040 10W 7146 1%</t>
   </si>
 </sst>
 </file>
@@ -2091,6 +2097,971 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2540,11 +3511,7 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2563,9 +3530,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2582,6 +3546,13 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2617,971 +3588,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3596,28 +3602,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table223" displayName="Table223" ref="A1:N49" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table223" displayName="Table223" ref="A1:N49" totalsRowCount="1" headerRowDxfId="67" dataDxfId="65" totalsRowDxfId="63" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:N48"/>
   <sortState ref="A2:O54">
     <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Comment" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Description" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="Designator" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Board" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="14" name="encomendar" dataDxfId="17" totalsRowDxfId="3">
+    <tableColumn id="1" name="Comment" dataDxfId="61" totalsRowDxfId="13"/>
+    <tableColumn id="2" name="Description" dataDxfId="60" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Designator" dataDxfId="59" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="58" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="57" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="56" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Board" dataDxfId="55" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="54" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="53" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="52" totalsRowDxfId="4"/>
+    <tableColumn id="14" name="encomendar" dataDxfId="51" totalsRowDxfId="3">
       <calculatedColumnFormula>Table223[[#This Row],[Quantity]]*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="12" name="price REV4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="50" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="49" totalsRowDxfId="1"/>
+    <tableColumn id="12" name="price REV4" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0">
       <calculatedColumnFormula>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table223[price REV4])</totalsRowFormula>
     </tableColumn>
@@ -3627,28 +3633,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N86" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N86" totalsRowCount="1" headerRowDxfId="47" dataDxfId="45" totalsRowDxfId="43" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="42">
   <autoFilter ref="A1:N85"/>
   <sortState ref="A2:N85">
     <sortCondition ref="K1:K85"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Comment" dataDxfId="61" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="Description" dataDxfId="60" totalsRowDxfId="46"/>
-    <tableColumn id="3" name="Designator" dataDxfId="59" totalsRowDxfId="45"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="58" totalsRowDxfId="44"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="57" totalsRowDxfId="43"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="56" totalsRowDxfId="42"/>
-    <tableColumn id="7" name="Board" dataDxfId="55" totalsRowDxfId="41"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="54" totalsRowDxfId="40"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="53" totalsRowDxfId="39"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="52" totalsRowDxfId="38"/>
-    <tableColumn id="14" name="encomendar" dataDxfId="48" totalsRowDxfId="37">
+    <tableColumn id="1" name="Comment" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Description" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" name="Designator" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" name="Board" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="14" name="encomendar" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Table22[[#This Row],[Quantity]]*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="51" totalsRowDxfId="36"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="50" totalsRowDxfId="35"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="34">
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table22[price total])</totalsRowFormula>
     </tableColumn>
@@ -3925,9 +3931,9 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S35" sqref="S35"/>
+      <selection pane="topRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +5242,7 @@
     </row>
     <row r="32" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>118</v>
+        <v>407</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>93</v>
@@ -5257,11 +5263,9 @@
         <v>255</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>6</v>
+        <v>406</v>
       </c>
       <c r="K32" s="3">
         <v>20</v>
@@ -5269,12 +5273,12 @@
       <c r="L32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="17" t="s">
-        <v>285</v>
+      <c r="M32" s="17">
+        <v>1.57</v>
       </c>
       <c r="N32" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>5.42</v>
+        <v>31.400000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -5952,7 +5956,7 @@
       </c>
       <c r="N49" s="26">
         <f>SUM(Table223[price REV4])</f>
-        <v>993.22700000000032</v>
+        <v>1019.2070000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6429,7 @@
         <v>0.45899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>248</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>370</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>246</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>0.8879999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>357</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>125</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="54" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>242</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>226</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -7250,7 +7254,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>264</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>186</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>14.628</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>158</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>362</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>131</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>268</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>136</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>173</v>
       </c>
@@ -8326,7 +8330,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>363</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>132</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>368</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>127</v>
       </c>
@@ -8614,7 +8618,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>192</v>
       </c>
@@ -8700,7 +8704,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>118</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>221</v>
       </c>
@@ -8874,7 +8878,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>263</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>3.726</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>157</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>157</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>259</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>216</v>
       </c>
@@ -9567,11 +9571,11 @@
         <v>4.5</v>
       </c>
       <c r="G94" s="39">
-        <f>M94*5</f>
+        <f t="shared" ref="G94:H97" si="0">M94*5</f>
         <v>94.564999999999998</v>
       </c>
       <c r="H94" s="39">
-        <f>N94*5</f>
+        <f t="shared" si="0"/>
         <v>266.82500000000005</v>
       </c>
       <c r="I94" s="39">
@@ -9606,11 +9610,11 @@
         <v>4.5</v>
       </c>
       <c r="G95" s="39">
-        <f>M95*5</f>
+        <f t="shared" si="0"/>
         <v>45.335000000000001</v>
       </c>
       <c r="H95" s="39">
-        <f>N95*5</f>
+        <f t="shared" si="0"/>
         <v>221.375</v>
       </c>
       <c r="I95" s="39">
@@ -9642,11 +9646,11 @@
         <v>4.5</v>
       </c>
       <c r="G96" s="39">
-        <f>M96*5</f>
+        <f t="shared" si="0"/>
         <v>141.68999999999997</v>
       </c>
       <c r="H96" s="39">
-        <f>N96*5</f>
+        <f t="shared" si="0"/>
         <v>146.01</v>
       </c>
       <c r="I96" s="39">
@@ -9678,11 +9682,11 @@
         <v>4.5</v>
       </c>
       <c r="G97" s="39">
-        <f>M97*5</f>
+        <f t="shared" si="0"/>
         <v>59.534999999999997</v>
       </c>
       <c r="H97" s="39">
-        <f>N97*5</f>
+        <f t="shared" si="0"/>
         <v>73.08</v>
       </c>
       <c r="I97" s="39">

--- a/2. Hardware PCB/REV_4.0/BOM GERAL/BOM_REV4.xlsx
+++ b/2. Hardware PCB/REV_4.0/BOM GERAL/BOM_REV4.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="BOM REV4 (2)" sheetId="14" r:id="rId1"/>
     <sheet name="BOM REV4" sheetId="11" r:id="rId2"/>
+    <sheet name="BOM REV4 LCSC" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="472">
   <si>
     <t>Comment</t>
   </si>
@@ -1231,9 +1232,6 @@
     <t>MOS_DRIVER-MIC4127</t>
   </si>
   <si>
-    <t>998-MIC4127YME</t>
-  </si>
-  <si>
     <t>MCLRP12JTDRR018 -  SMD Current Sense Resistor, 0.018 ohm, LRP Series, 2512 [6432 Metric], 3 W, ± 5%, Metal Strip</t>
   </si>
   <si>
@@ -1244,6 +1242,201 @@
   </si>
   <si>
     <t>R 0040 10W 7146 1%</t>
+  </si>
+  <si>
+    <t>C 8uF PPCap TH 900V</t>
+  </si>
+  <si>
+    <t>C2, C4, C6</t>
+  </si>
+  <si>
+    <t>137-2363</t>
+  </si>
+  <si>
+    <t>998-MIC4127YME-TR</t>
+  </si>
+  <si>
+    <t>634-SI8660BA-B-IS1R</t>
+  </si>
+  <si>
+    <t>919-RLS-126-R</t>
+  </si>
+  <si>
+    <t>R 2.2 3W TH 5%</t>
+  </si>
+  <si>
+    <t>PWR_RESC_3W</t>
+  </si>
+  <si>
+    <t>214-2409</t>
+  </si>
+  <si>
+    <t>0,351</t>
+  </si>
+  <si>
+    <t>251-8402</t>
+  </si>
+  <si>
+    <t>P 36x2p 2.54</t>
+  </si>
+  <si>
+    <t>só tem stock farnell</t>
+  </si>
+  <si>
+    <t>comentários p/ RUI</t>
+  </si>
+  <si>
+    <t>871-B43541A7107M000</t>
+  </si>
+  <si>
+    <t>IC CC/CC 24-5V 2W iso</t>
+  </si>
+  <si>
+    <t>CAN bus</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC com isolação 21.6-26.4Vin 5Vout 400mA 2W Iso SIP</t>
+  </si>
+  <si>
+    <t>490-PCN2-S24-S5-S</t>
+  </si>
+  <si>
+    <t>+1 polysol</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>LCSC Price</t>
+  </si>
+  <si>
+    <t>C282728</t>
+  </si>
+  <si>
+    <t>C13585</t>
+  </si>
+  <si>
+    <t>C89596</t>
+  </si>
+  <si>
+    <t>C303891</t>
+  </si>
+  <si>
+    <t>C340308</t>
+  </si>
+  <si>
+    <t>C328843</t>
+  </si>
+  <si>
+    <t>C238048</t>
+  </si>
+  <si>
+    <t>C456277</t>
+  </si>
+  <si>
+    <t>C324734</t>
+  </si>
+  <si>
+    <t>C382183</t>
+  </si>
+  <si>
+    <t>C232070</t>
+  </si>
+  <si>
+    <t>C118062</t>
+  </si>
+  <si>
+    <t>C111280</t>
+  </si>
+  <si>
+    <t>C179555</t>
+  </si>
+  <si>
+    <t>C476130</t>
+  </si>
+  <si>
+    <t>C461907</t>
+  </si>
+  <si>
+    <t>C99881</t>
+  </si>
+  <si>
+    <t>C400947</t>
+  </si>
+  <si>
+    <t>C245356</t>
+  </si>
+  <si>
+    <t>C416108</t>
+  </si>
+  <si>
+    <t>C114564</t>
+  </si>
+  <si>
+    <t>C304843</t>
+  </si>
+  <si>
+    <t>C126350</t>
+  </si>
+  <si>
+    <t>C105878</t>
+  </si>
+  <si>
+    <t>C276225</t>
+  </si>
+  <si>
+    <t>C126352</t>
+  </si>
+  <si>
+    <t>C334894</t>
+  </si>
+  <si>
+    <t>C168422</t>
+  </si>
+  <si>
+    <t>C114526</t>
+  </si>
+  <si>
+    <t>C325766</t>
+  </si>
+  <si>
+    <t>C101403</t>
+  </si>
+  <si>
+    <t>C212287</t>
+  </si>
+  <si>
+    <t>C144539</t>
+  </si>
+  <si>
+    <t>C121768</t>
+  </si>
+  <si>
+    <t>C86576</t>
+  </si>
+  <si>
+    <t>C50982</t>
+  </si>
+  <si>
+    <t>C124383</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>C35165</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>C86580</t>
+  </si>
+  <si>
+    <t>C8404</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,8 +1488,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,8 +1540,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1491,11 +1704,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1558,9 +1807,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,47 +1890,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="110">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left/>
+        <right/>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
         </top>
         <bottom/>
       </border>
@@ -1736,6 +2029,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2096,7 +2390,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2109,6 +2402,93 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2160,38 +2540,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2225,7 +2573,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2235,7 +2583,11 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2286,7 +2638,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2297,71 +2649,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2412,7 +2702,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2423,7 +2713,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2474,7 +2766,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2485,7 +2777,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2536,7 +2830,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2547,7 +2841,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2580,346 +2876,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3062,8 +3018,8 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3073,9 +3029,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3127,6 +3081,38 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3141,6 +3127,98 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3193,7 +3271,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3204,9 +3282,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3257,7 +3333,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3268,9 +3344,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3321,7 +3395,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3332,9 +3406,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3385,7 +3457,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3396,9 +3468,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3449,6 +3519,36 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3463,6 +3563,284 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3588,6 +3966,1019 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3602,62 +4993,97 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table223" displayName="Table223" ref="A1:N49" totalsRowCount="1" headerRowDxfId="67" dataDxfId="65" totalsRowDxfId="63" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="62">
-  <autoFilter ref="A1:N48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table223" displayName="Table223" ref="A1:O51" totalsRowCount="1" headerRowDxfId="109" dataDxfId="107" totalsRowDxfId="105" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="104">
+  <autoFilter ref="A1:O50"/>
   <sortState ref="A2:O54">
     <sortCondition ref="A1:A54"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Comment" dataDxfId="61" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Description" dataDxfId="60" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="Designator" dataDxfId="59" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="58" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="57" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="56" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Board" dataDxfId="55" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="54" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="53" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="52" totalsRowDxfId="4"/>
-    <tableColumn id="14" name="encomendar" dataDxfId="51" totalsRowDxfId="3">
+  <tableColumns count="15">
+    <tableColumn id="1" name="Comment" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="2" name="Description" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="3" name="Designator" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="7" name="Board" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="14" name="encomendar" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>Table223[[#This Row],[Quantity]]*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="50" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="49" totalsRowDxfId="1"/>
-    <tableColumn id="12" name="price REV4" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0">
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="12" name="price REV4" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table223[price REV4])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" name="comentários p/ RUI" dataDxfId="75" totalsRowDxfId="74"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N86" totalsRowCount="1" headerRowDxfId="73" dataDxfId="71" totalsRowDxfId="69" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="68">
+  <autoFilter ref="A1:N85"/>
+  <sortState ref="A2:N85">
+    <sortCondition ref="K1:K85"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Comment" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="2" name="Description" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="3" name="Designator" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="7" name="Board" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="14" name="encomendar" dataDxfId="47" totalsRowDxfId="46">
+      <calculatedColumnFormula>Table22[[#This Row],[Quantity]]*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+      <calculatedColumnFormula>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table22[price total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N86" totalsRowCount="1" headerRowDxfId="47" dataDxfId="45" totalsRowDxfId="43" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="42">
-  <autoFilter ref="A1:N85"/>
-  <sortState ref="A2:N85">
-    <sortCondition ref="K1:K85"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2234" displayName="Table2234" ref="A1:Q51" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="35" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="A1:Q50"/>
+  <sortState ref="A2:O54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Comment" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" name="Description" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" name="Designator" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" name="Board" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="8" name="RS VPN" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="9" name="Farnell VPN" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="Mouser VPN" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" name="encomendar" dataDxfId="21" totalsRowDxfId="20">
-      <calculatedColumnFormula>Table22[[#This Row],[Quantity]]*5</calculatedColumnFormula>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Comment" dataDxfId="33" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="Description" dataDxfId="32" totalsRowDxfId="15"/>
+    <tableColumn id="3" name="Designator" dataDxfId="31" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="30" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="29" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="28" totalsRowDxfId="11"/>
+    <tableColumn id="7" name="Board" dataDxfId="27" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="RS VPN" dataDxfId="26" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Farnell VPN" dataDxfId="25" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Mouser VPN" dataDxfId="24" totalsRowDxfId="7"/>
+    <tableColumn id="14" name="encomendar" dataDxfId="23" totalsRowDxfId="6">
+      <calculatedColumnFormula>Table2234[[#This Row],[Quantity]]*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="price total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
-      <calculatedColumnFormula>Table22[[#This Row],[price]]*Table22[[#This Row],[Quantity]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Table22[price total])</totalsRowFormula>
+    <tableColumn id="13" name="PCDIGA VPN" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="price" totalsRowLabel="TOTAL" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="12" name="price REV4" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="3">
+      <calculatedColumnFormula>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table2234[price REV4])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="15" name="LCSC" dataDxfId="19" totalsRowDxfId="2"/>
+    <tableColumn id="17" name="LCSC Price" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="18" name="Column1" dataDxfId="17" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3929,11 +5355,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,10 +5378,12 @@
     <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="16"/>
     <col min="14" max="14" width="13.5703125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="21.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3995,18 +5423,21 @@
       <c r="M1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="49" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="O1" s="56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4042,15 +5473,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>1.98</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -4084,15 +5516,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4108,35 +5541,37 @@
         <v>255</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="52">
+        <v>1692396</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>276</v>
+      <c r="M4" s="17">
+        <v>2.82</v>
       </c>
       <c r="N4" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>71.100000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+        <v>56.4</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>260</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4172,17 +5607,18 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26" t="s">
         <v>374</v>
       </c>
       <c r="F6" s="4">
@@ -4193,7 +5629,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>374</v>
       </c>
       <c r="K6" s="3">
@@ -4201,59 +5637,61 @@
         <v>50</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>1.8</v>
       </c>
       <c r="N6" s="20">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>312</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="18" t="s">
-        <v>322</v>
-      </c>
+      <c r="J7" s="18"/>
       <c r="K7" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="21" t="s">
-        <v>324</v>
+      <c r="M7" s="21">
+        <v>4.34</v>
       </c>
       <c r="N7" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>375</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4273,30 +5711,32 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="27" t="s">
-        <v>44</v>
+      <c r="J8" s="26" t="s">
+        <v>421</v>
       </c>
       <c r="K8" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>20</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>6.31</v>
       </c>
       <c r="N8" s="20">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>126.19999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="O8" s="54"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4332,15 +5772,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>55.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4376,15 +5817,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="30" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -4418,15 +5860,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>26.549999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="30" t="s">
         <v>199</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -4449,8 +5892,7 @@
         <v>202</v>
       </c>
       <c r="K12" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="17" t="s">
@@ -4458,17 +5900,19 @@
       </c>
       <c r="N12" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+        <v>49.56</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -4502,15 +5946,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>12.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="30" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -4544,15 +5989,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>53.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4588,15 +6034,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>1.3499999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="66" t="s">
         <v>194</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -4630,15 +6077,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>13.365</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>400</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="67" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -4658,7 +6106,7 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K17" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
@@ -4672,15 +6120,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>3.7800000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -4703,7 +6152,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>6</v>
@@ -4713,17 +6162,18 @@
       </c>
       <c r="N18" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>48.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+        <v>81.25</v>
+      </c>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="30" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -4743,7 +6193,7 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="3" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="K19" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
@@ -4757,15 +6207,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>18.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="O19" s="54"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>178</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="66" t="s">
         <v>179</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -4799,15 +6250,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>7.74</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="O20" s="54"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="30" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -4841,15 +6293,16 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>15.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>250</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="30" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -4864,9 +6317,7 @@
       <c r="G22" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
         <v>253</v>
       </c>
@@ -4877,262 +6328,276 @@
         <v>4</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="17" t="s">
-        <v>305</v>
+      <c r="M22" s="17">
+        <v>11.91</v>
       </c>
       <c r="N22" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>58.512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+        <v>47.64</v>
+      </c>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="3">
+        <v>12</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="17">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="N23" s="14">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>53.748000000000005</v>
+      </c>
+      <c r="O23" s="55"/>
+      <c r="P23" s="51"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>4</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>20</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="17" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>10.98</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="O24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="9">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="K24" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
+      <c r="K25" s="3">
         <v>10</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="21">
+      <c r="L25" s="18"/>
+      <c r="M25" s="21">
         <v>2.5299999999999998</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>25.299999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>16</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="I26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>80</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="17" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>19.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="O26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>5</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="17" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>2.0250000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="O27" s="54"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>27</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>135</v>
-      </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="N27" s="14">
-        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>83.834999999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18" t="s">
-        <v>347</v>
+        <v>116</v>
       </c>
       <c r="K28" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="L28" s="18"/>
-      <c r="M28" s="21">
-        <v>2.16</v>
+      <c r="M28" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="N28" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>363</v>
+        <v>83.834999999999994</v>
+      </c>
+      <c r="O28" s="54"/>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>326</v>
@@ -5140,112 +6605,106 @@
       <c r="H29" s="9"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="3">
+        <v>15</v>
+      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="21">
+        <v>2.16</v>
+      </c>
+      <c r="N29" s="14">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="O29" s="55"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K30" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>10</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="21">
+      <c r="L30" s="18"/>
+      <c r="M30" s="21">
         <v>0.79500000000000004</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>7.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="O30" s="54"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>5</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>25</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="17" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="O31" s="54"/>
+    </row>
+    <row r="32" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="3">
-        <v>2828299</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="3">
-        <v>20</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="17">
-        <v>0.247</v>
-      </c>
-      <c r="N31" s="14">
-        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>4.9399999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>403</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>33</v>
@@ -5263,200 +6722,206 @@
         <v>255</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>2828299</v>
+      </c>
       <c r="J32" s="3" t="s">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="K32" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M32" s="17">
-        <v>1.57</v>
+        <v>0.247</v>
       </c>
       <c r="N32" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="O32" s="54"/>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K33" s="3">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="17">
+        <v>1.57</v>
+      </c>
+      <c r="N33" s="14">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>31.400000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="O33" s="54"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K34" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>10</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="17" t="s">
+      <c r="L34" s="9"/>
+      <c r="M34" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="O34" s="54"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" s="18" t="s">
+      <c r="D35" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>3</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" s="3">
+      <c r="H35" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>15</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="N34" s="14">
-        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>4.7249999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="4">
-        <v>9</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="3">
-        <v>15</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>283</v>
+      <c r="L35" s="18"/>
+      <c r="M35" s="21" t="s">
+        <v>416</v>
       </c>
       <c r="N35" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>1.3499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="18" t="s">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="O35" s="54"/>
+    </row>
+    <row r="36" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="F36" s="4">
+        <v>9</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J36" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="K36" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
-      </c>
-      <c r="L36" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="M36" s="17" t="s">
         <v>283</v>
       </c>
       <c r="N36" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>148</v>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="O36" s="54"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>32</v>
@@ -5475,7 +6940,7 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="3" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="K37" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
@@ -5489,43 +6954,42 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="54"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="9">
         <v>1</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="K38" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>5</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="L38" s="9"/>
       <c r="M38" s="17" t="s">
         <v>283</v>
       </c>
@@ -5533,41 +6997,44 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="O38" s="54"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="9"/>
+      <c r="G39" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J39" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="K39" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>5</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="M39" s="17" t="s">
         <v>283</v>
       </c>
@@ -5575,162 +7042,164 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="O39" s="54"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="4">
-        <v>12</v>
+      <c r="F40" s="9">
+        <v>1</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="3" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="K40" s="3">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>6</v>
-      </c>
+        <f>Table223[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L40" s="9"/>
       <c r="M40" s="17" t="s">
         <v>283</v>
       </c>
       <c r="N40" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O40" s="54"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4">
+        <v>12</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N41" s="14">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="O41" s="54"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="9">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="9">
         <v>2</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K42" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>10</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="21">
+      <c r="L42" s="18"/>
+      <c r="M42" s="21">
         <v>0.36099999999999999</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>3.61</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="O42" s="54"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="3" t="s">
+      <c r="H43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="K42" s="3">
-        <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="N42" s="14">
-        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="K43" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>5</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="L43" s="9"/>
       <c r="M43" s="17" t="s">
         <v>283</v>
       </c>
@@ -5738,16 +7207,17 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>266</v>
+      <c r="O43" s="54"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>265</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>32</v>
@@ -5758,7 +7228,7 @@
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="63" t="s">
         <v>255</v>
       </c>
       <c r="H44" s="9"/>
@@ -5766,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K44" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
@@ -5782,182 +7252,271 @@
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="9">
+      <c r="O44" s="54"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>326</v>
+      <c r="G45" s="63" t="s">
+        <v>255</v>
       </c>
       <c r="H45" s="9"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
-        <v>354</v>
+      <c r="I45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="K45" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
         <v>5</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="21">
-        <v>5.1999999999999998E-2</v>
+      <c r="L45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="N45" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O45" s="54"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
+        <v>369</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="9">
+        <v>1</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="H46" s="9"/>
-      <c r="I46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>130</v>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="K46" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>10</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>283</v>
+        <v>5</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="21">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="N46" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>326</v>
+        <v>0.26</v>
+      </c>
+      <c r="O46" s="54"/>
+    </row>
+    <row r="47" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="63" t="s">
+        <v>255</v>
       </c>
       <c r="H47" s="9"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18" t="s">
-        <v>351</v>
+      <c r="I47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="K47" s="3">
         <f>Table223[[#This Row],[Quantity]]*5</f>
-        <v>5</v>
-      </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="21">
-        <v>0.111</v>
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="N47" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="4">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O47" s="54"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="9">
         <v>1</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="H48" s="9"/>
-      <c r="I48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>6</v>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="K48" s="3">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>289</v>
+        <f>Table223[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="21">
+        <v>0.111</v>
       </c>
       <c r="N48" s="14">
         <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="O48" s="54"/>
+    </row>
+    <row r="49" spans="1:15" ht="54" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N49" s="14">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
         <v>91.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="26" t="s">
+      <c r="O49" s="54"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="17">
+        <v>5.03</v>
+      </c>
+      <c r="N50" s="20">
+        <f>Table223[[#This Row],[encomendar]]*Table223[[#This Row],[price]]</f>
+        <v>10.06</v>
+      </c>
+      <c r="O50" s="55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N51" s="25">
         <f>SUM(Table223[price REV4])</f>
-        <v>1019.2070000000003</v>
-      </c>
+        <v>1164.8730000000005</v>
+      </c>
+      <c r="O51" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5975,9 +7534,9 @@
   </sheetPr>
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O103" sqref="O103"/>
+      <selection pane="topRight" activeCell="E92" sqref="E92:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,7 +7603,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>360</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -6077,7 +7636,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>361</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -6110,7 +7669,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -6153,7 +7712,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>218</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -6196,7 +7755,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6239,7 +7798,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>218</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -6278,7 +7837,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>358</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -6311,7 +7870,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>219</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -6354,7 +7913,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>359</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -6387,7 +7946,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>262</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6430,7 +7989,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>248</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -6473,7 +8032,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -6516,7 +8075,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6555,7 +8114,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>364</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -6588,7 +8147,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>370</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -6621,7 +8180,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>246</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -6664,7 +8223,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>357</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -6697,7 +8256,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -6740,7 +8299,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>125</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -6783,7 +8342,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>125</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -6826,7 +8385,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>242</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -6869,7 +8428,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -6912,7 +8471,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>367</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -6945,7 +8504,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>234</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -6988,7 +8547,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7031,7 +8590,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>238</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -7074,7 +8633,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>365</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -7107,7 +8666,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -7150,7 +8709,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>230</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -7193,7 +8752,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -7215,7 +8774,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>310</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -7255,7 +8814,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>264</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -7299,7 +8858,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -7343,7 +8902,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -7385,7 +8944,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -7427,7 +8986,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -7469,7 +9028,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>186</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -7511,7 +9070,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -7555,7 +9114,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>250</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7599,7 +9158,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -7641,7 +9200,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -7681,7 +9240,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>362</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -7715,7 +9274,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -7757,7 +9316,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>148</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -7799,7 +9358,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7843,7 +9402,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -7885,7 +9444,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B48" s="19" t="s">
@@ -7927,7 +9486,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -7971,7 +9530,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>266</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -8015,7 +9574,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>369</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -8049,7 +9608,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>366</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -8083,7 +9642,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="54" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>268</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -8127,7 +9686,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -8171,7 +9730,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -8213,7 +9772,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -8255,7 +9814,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -8297,7 +9856,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>371</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -8331,7 +9890,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>363</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -8365,7 +9924,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -8450,7 +10009,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>368</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -8487,7 +10046,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -8531,7 +10090,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -8575,7 +10134,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -8619,7 +10178,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -8661,7 +10220,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>164</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -8705,7 +10264,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -8749,7 +10308,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>311</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -8835,7 +10394,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>221</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -8879,7 +10438,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>263</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -8923,7 +10482,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -8965,7 +10524,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -9007,7 +10566,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -9049,7 +10608,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -9089,7 +10648,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -9131,7 +10690,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -9175,7 +10734,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -9217,7 +10776,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>260</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -9261,7 +10820,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="23" t="s">
         <v>152</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -9305,7 +10864,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -9349,7 +10908,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -9391,7 +10950,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>259</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -9435,7 +10994,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="23" t="s">
         <v>216</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -9489,112 +11048,112 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="26" t="s">
+      <c r="M86" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="N86" s="26">
+      <c r="N86" s="25">
         <f>SUM(Table22[price total])</f>
         <v>245.374</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F92" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="G92" s="35" t="s">
+      <c r="G92" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="H92" s="35" t="s">
+      <c r="H92" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="I92" s="35" t="s">
+      <c r="I92" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="J92" s="49" t="s">
+      <c r="J92" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35" t="s">
+      <c r="K92" s="34"/>
+      <c r="L92" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="M92" s="36" t="s">
+      <c r="M92" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="N92" s="37" t="s">
+      <c r="N92" s="36" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="38" t="s">
+      <c r="E93" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="38">
         <v>4.5</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="38">
         <v>137.41999999999999</v>
       </c>
-      <c r="H93" s="39">
+      <c r="H93" s="38">
         <v>116.37</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="38">
         <v>44.2</v>
       </c>
-      <c r="J93" s="40">
+      <c r="J93" s="39">
         <f>I93+H93</f>
         <v>160.57</v>
       </c>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39">
+      <c r="K93" s="38"/>
+      <c r="L93" s="38">
         <f>H93+G93+F93</f>
         <v>258.28999999999996</v>
       </c>
-      <c r="M93" s="39">
+      <c r="M93" s="38">
         <f>N4+N6+N13+N19+N37+N57+N63+N72+N76+N82+N83</f>
         <v>53.647000000000006</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>N23+N40+N45+N52</f>
         <v>14.919</v>
       </c>
       <c r="O93" s="16"/>
     </row>
     <row r="94" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="38">
         <v>4.5</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="38">
         <f t="shared" ref="G94:H97" si="0">M94*5</f>
         <v>94.564999999999998</v>
       </c>
-      <c r="H94" s="39">
+      <c r="H94" s="38">
         <f t="shared" si="0"/>
         <v>266.82500000000005</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="38">
         <v>21.43</v>
       </c>
-      <c r="J94" s="40">
+      <c r="J94" s="39">
         <f>I94+H94</f>
         <v>288.25500000000005</v>
       </c>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39">
+      <c r="K94" s="38"/>
+      <c r="L94" s="38">
         <f>H94+F94</f>
         <v>271.32500000000005</v>
       </c>
-      <c r="M94" s="39">
+      <c r="M94" s="38">
         <f>N74+N69+N66+N64+N60+N36+N9</f>
         <v>18.913</v>
       </c>
-      <c r="N94" s="40">
+      <c r="N94" s="39">
         <f>N74+N69+N66+N64+N60+N58+N53+N50+N48+N46+N41+N38+N36+N33+N31+N30+N28+N27+N26+N25+N9</f>
         <v>53.365000000000009</v>
       </c>
@@ -9603,109 +11162,109 @@
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="38">
         <v>4.5</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <f t="shared" si="0"/>
         <v>45.335000000000001</v>
       </c>
-      <c r="H95" s="39">
+      <c r="H95" s="38">
         <f t="shared" si="0"/>
         <v>221.375</v>
       </c>
-      <c r="I95" s="39">
+      <c r="I95" s="38">
         <v>35.159999999999997</v>
       </c>
-      <c r="J95" s="40">
+      <c r="J95" s="39">
         <f>I95+H95</f>
         <v>256.53499999999997</v>
       </c>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39">
+      <c r="K95" s="38"/>
+      <c r="L95" s="38">
         <f>F95+G95+H95</f>
         <v>271.20999999999998</v>
       </c>
-      <c r="M95" s="39">
+      <c r="M95" s="38">
         <f>N73+N70+N65+N62+N56+N21+N18+N7</f>
         <v>9.0670000000000002</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N95" s="39">
         <f>N84+N80+N77+N75+N67+N59+N49+N44+N42+N32+N29+N24+N20+N17+N16+N12+N10+N5</f>
         <v>44.274999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="F96" s="39">
+      <c r="F96" s="38">
         <v>4.5</v>
       </c>
-      <c r="G96" s="39">
+      <c r="G96" s="38">
         <f t="shared" si="0"/>
         <v>141.68999999999997</v>
       </c>
-      <c r="H96" s="39">
+      <c r="H96" s="38">
         <f t="shared" si="0"/>
         <v>146.01</v>
       </c>
-      <c r="I96" s="39">
+      <c r="I96" s="38">
         <v>20.85</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J96" s="39">
         <f>I96+H96</f>
         <v>166.85999999999999</v>
       </c>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39">
+      <c r="K96" s="38"/>
+      <c r="L96" s="38">
         <f>F96+G96+H96</f>
         <v>292.19999999999993</v>
       </c>
-      <c r="M96" s="39">
+      <c r="M96" s="38">
         <f>N79+N68+N39+N35+N34+N14+N11+N3+N2</f>
         <v>28.337999999999994</v>
       </c>
-      <c r="N96" s="40">
+      <c r="N96" s="39">
         <f>N43+N54+N55+N71+N78+N81</f>
         <v>29.201999999999998</v>
       </c>
     </row>
     <row r="97" spans="5:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="38">
         <v>4.5</v>
       </c>
-      <c r="G97" s="39">
+      <c r="G97" s="38">
         <f t="shared" si="0"/>
         <v>59.534999999999997</v>
       </c>
-      <c r="H97" s="39">
+      <c r="H97" s="38">
         <f t="shared" si="0"/>
         <v>73.08</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="38">
         <v>40</v>
       </c>
-      <c r="J97" s="40">
+      <c r="J97" s="39">
         <f>I97+H97</f>
         <v>113.08</v>
       </c>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39">
+      <c r="K97" s="38"/>
+      <c r="L97" s="38">
         <f>F97+G97+H97</f>
         <v>137.11500000000001</v>
       </c>
-      <c r="M97" s="39">
+      <c r="M97" s="38">
         <f>3*N8+3*N22</f>
         <v>11.907</v>
       </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>3*N47+3*N51+3*N61+3*N15</f>
         <v>14.616</v>
       </c>
@@ -9714,53 +11273,53 @@
       </c>
     </row>
     <row r="98" spans="5:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="40">
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="39">
         <v>24.84</v>
       </c>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="40"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="39"/>
     </row>
     <row r="99" spans="5:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="43">
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="42">
         <f>0.23*(SUM(I93:I97)+J98)+30.3+18</f>
         <v>91.190399999999997</v>
       </c>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="42"/>
-      <c r="N99" s="43"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="42"/>
     </row>
     <row r="100" spans="5:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I100" s="45" t="s">
+      <c r="I100" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="J100" s="47">
+      <c r="J100" s="46">
         <f>SUM(J93:J99)</f>
         <v>1101.3304000000001</v>
       </c>
-      <c r="K100" s="46"/>
-      <c r="L100" s="46">
+      <c r="K100" s="45"/>
+      <c r="L100" s="45">
         <f>SUM(L93:L97)</f>
         <v>1230.1400000000001</v>
       </c>
-      <c r="M100" s="46"/>
-      <c r="N100" s="47"/>
+      <c r="M100" s="45"/>
+      <c r="N100" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9769,4 +11328,2451 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="13.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="N2" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="P2" s="54">
+        <v>0.46</v>
+      </c>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>60</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="N3" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="52">
+        <v>1692396</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2.82</v>
+      </c>
+      <c r="N4" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>56.4</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="P4" s="54">
+        <v>16.55</v>
+      </c>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="P5" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="Q5" s="54"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>50</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="N6" s="20">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>90</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="P6" s="59">
+        <v>7.85</v>
+      </c>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>15</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="21">
+        <v>4.34</v>
+      </c>
+      <c r="N7" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="P7" s="59">
+        <v>27.52</v>
+      </c>
+      <c r="Q7" s="54"/>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>20</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="27">
+        <v>6.31</v>
+      </c>
+      <c r="N8" s="20">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>126.19999999999999</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="P8" s="59">
+        <v>39.44</v>
+      </c>
+      <c r="Q8" s="54"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>55.5</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="54"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>20</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>28</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="N11" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>26.549999999999997</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="P11" s="59">
+        <v>14.25</v>
+      </c>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N12" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>49.56</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="P12" s="59">
+        <v>28.43</v>
+      </c>
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N13" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>12.15</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="P13" s="59">
+        <v>14.66</v>
+      </c>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="N14" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>53.099999999999994</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" s="59">
+        <v>23.88</v>
+      </c>
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N15" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="O15" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="54"/>
+    </row>
+    <row r="16" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>15</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N16" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>13.365</v>
+      </c>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="17" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="17">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="N17" s="15">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>81.25</v>
+      </c>
+      <c r="O18" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="P18" s="59">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K19" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N19" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>18.2</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="P19" s="59">
+        <v>25.92</v>
+      </c>
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>20</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N20" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>7.74</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="P20" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="Q20" s="54"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="N21" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>15.9</v>
+      </c>
+      <c r="O21" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="P21" s="59">
+        <v>9.02</v>
+      </c>
+      <c r="Q21" s="54"/>
+    </row>
+    <row r="22" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="17">
+        <v>11.91</v>
+      </c>
+      <c r="N22" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>47.64</v>
+      </c>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="54"/>
+    </row>
+    <row r="23" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="3">
+        <v>12</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="17">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="N23" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>53.748000000000005</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q23" s="62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>20</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="N24" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>10.98</v>
+      </c>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="54"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="9">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="21">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="N25" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>25.299999999999997</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q25" s="54"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="9">
+        <v>16</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>80</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N26" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>19.2</v>
+      </c>
+      <c r="O26" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="54"/>
+    </row>
+    <row r="27" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N27" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="54"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="9">
+        <v>27</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>135</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="N28" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>83.834999999999994</v>
+      </c>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="54"/>
+    </row>
+    <row r="29" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="3">
+        <v>15</v>
+      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="21">
+        <v>2.16</v>
+      </c>
+      <c r="N29" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="O29" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="21">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N30" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>7.95</v>
+      </c>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="54"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>25</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N31" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>2.25</v>
+      </c>
+      <c r="O31" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="54"/>
+    </row>
+    <row r="32" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="3">
+        <v>2828299</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0.247</v>
+      </c>
+      <c r="N32" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="54"/>
+    </row>
+    <row r="33" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K33" s="3">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="17">
+        <v>1.57</v>
+      </c>
+      <c r="N33" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>31.400000000000002</v>
+      </c>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="54"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N34" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O34" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="54"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9">
+        <v>3</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>15</v>
+      </c>
+      <c r="L35" s="18"/>
+      <c r="M35" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N35" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="O35" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="54"/>
+    </row>
+    <row r="36" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="4">
+        <v>9</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="3">
+        <v>15</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N36" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="O36" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="54"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N37" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O37" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N38" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O38" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="54"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N39" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O39" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="54"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N40" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O40" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="54"/>
+    </row>
+    <row r="41" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4">
+        <v>12</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N41" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O41" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="P41" s="59">
+        <v>0.19</v>
+      </c>
+      <c r="Q41" s="54"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="9">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="21">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="N42" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>3.61</v>
+      </c>
+      <c r="O42" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="P42" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="Q42" s="54"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N43" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O43" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="P43" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="Q43" s="54"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N44" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="P44" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="Q44" s="54"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N45" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="P45" s="59">
+        <v>0.13</v>
+      </c>
+      <c r="Q45" s="54"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N46" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="O46" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="P46" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="Q46" s="54"/>
+    </row>
+    <row r="47" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N47" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="P47" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="Q47" s="54"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" s="3">
+        <f>Table2234[[#This Row],[Quantity]]*5</f>
+        <v>5</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="21">
+        <v>0.111</v>
+      </c>
+      <c r="N48" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="O48" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="P48" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q48" s="54"/>
+    </row>
+    <row r="49" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N49" s="14">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>91.6</v>
+      </c>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="54"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="17">
+        <v>5.03</v>
+      </c>
+      <c r="N50" s="20">
+        <f>Table2234[[#This Row],[encomendar]]*Table2234[[#This Row],[price]]</f>
+        <v>10.06</v>
+      </c>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="54"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" s="25">
+        <f>SUM(Table2234[price REV4])</f>
+        <v>1164.8730000000005</v>
+      </c>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_CCTC-TCC0805X7R103K500DT_C282728.html"/>
+    <hyperlink ref="O3" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31A106KBHNNNE_C13585.html"/>
+    <hyperlink ref="O4" r:id="rId3" display="https://lcsc.com/product-detail/Tantalum-Capacitors_AVX_TAJD106K050RNJ_10uF-106-10-50V_C89596.html"/>
+    <hyperlink ref="O5" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0805B102K500CT_C303891.html"/>
+    <hyperlink ref="O6" r:id="rId5" display="https://lcsc.com/product-detail/Lack-of-specifications_HEC-Holy-Stone-Enterprise-C1812X333K102T_C340308.html"/>
+    <hyperlink ref="O7" r:id="rId6" display="https://lcsc.com/product-detail/CBB-Capacitors_XIAMEN-FARATRONIC-C42Q2685KFWC450_C328843.html"/>
+    <hyperlink ref="O8" r:id="rId7" display="https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_Man-Yue-Tech-EKP227M2WP35SZSMP_C238048.html"/>
+    <hyperlink ref="O9" r:id="rId8" display="https://lcsc.com/product-detail/Operational-Amplifiers_Texas-Instruments-Texas-Instruments-AMC1311DWVR_C456277.html"/>
+    <hyperlink ref="O10" r:id="rId9" display="https://lcsc.com/product-detail/Others_GTL-POWER-B0505LS-1W_C324734.html"/>
+    <hyperlink ref="O11" r:id="rId10" display="https://lcsc.com/product-detail/Power-Modules_Taisko-K7812-1000R3_C382183.html"/>
+    <hyperlink ref="O12" r:id="rId11" display="https://lcsc.com/product-detail/Power-Modules_AIPULNION-Guangzhou-Aipu-Elec-Tech-UD6-18S15E3_C232070.html"/>
+    <hyperlink ref="O13" r:id="rId12" display="https://lcsc.com/product-detail/Power-Modules_AIPULNION-Guangzhou-Aipu-Elec-Tech-K783V3-500_C118062.html"/>
+    <hyperlink ref="O14" r:id="rId13" display="https://lcsc.com/product-detail/Power-Modules_K7805-1000R3_C111280.html"/>
+    <hyperlink ref="O15" r:id="rId14" display="https://lcsc.com/product-detail/Switching-Diode_1N4148S_C179555.html"/>
+    <hyperlink ref="O18" r:id="rId15" display="https://lcsc.com/product-detail/Motor-Drivers_Infineon-Technologies-IKCM30F60GD_C476130.html"/>
+    <hyperlink ref="O19" r:id="rId16" display="https://lcsc.com/product-detail/Digital-Isolators_SILICON-LABS-SI8660BA-B-IS1R_C461907.html"/>
+    <hyperlink ref="O20" r:id="rId17" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_green-SMDLED-400-500mcd_C99881.html"/>
+    <hyperlink ref="O21" r:id="rId18" display="https://lcsc.com/product-detail/Relays_HF-Xiamen-Hongfa-Electroacoustic-HF49FD-005-1H12_C400947.html"/>
+    <hyperlink ref="O48" r:id="rId19" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Ever-Ohms-Tech-CR0805F59RP05_C245356.html"/>
+    <hyperlink ref="O47" r:id="rId20" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-CR-05FL7-49K9_C416108.html"/>
+    <hyperlink ref="O46" r:id="rId21" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_470R-470R-1_C114564.html"/>
+    <hyperlink ref="O45" r:id="rId22" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FH-Guangdong-Fenghua-Advanced-Tech-RS-05K362FT_C304843.html"/>
+    <hyperlink ref="O44" r:id="rId23" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_3KR-3001-1_C126350.html"/>
+    <hyperlink ref="O43" r:id="rId24" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_330R-330R-1_C105878.html"/>
+    <hyperlink ref="O42" r:id="rId25" display="https://lcsc.com/product-detail/Others_KOA-Speer-Elec-RK73H2ATTD3300F_C276225.html"/>
+    <hyperlink ref="O41" r:id="rId26" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_30KR-3002-1_C126352.html"/>
+    <hyperlink ref="O40" r:id="rId27" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Walsin-Tech-Corp-WR08X2701FTL_C334894.html"/>
+    <hyperlink ref="O39" r:id="rId28" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Walsin-Tech-Corp-WR08X1801FTL_C168422.html"/>
+    <hyperlink ref="O38" r:id="rId29" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_1-2KR-1201-1_C114526.html"/>
+    <hyperlink ref="O37" r:id="rId30" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_TyoHM-RMC08051501-N_C325766.html"/>
+    <hyperlink ref="O36" r:id="rId31" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_100R-1000-1_C101403.html"/>
+    <hyperlink ref="O34" r:id="rId32" display="https://lcsc.com/product-detail/Others_TA-I-Tech-RMS10FT10R0_C212287.html"/>
+    <hyperlink ref="O31" r:id="rId33" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_0R-0R0-5_C144539.html"/>
+    <hyperlink ref="O35" r:id="rId34" display="https://lcsc.com/product-detail/Metal-Oxide-Resistors_CCO-Chian-Chia-Elec-MOF3WS-2-2R-5-T_C121768.html"/>
+    <hyperlink ref="O29" r:id="rId35" display="https://lcsc.com/product-detail/Ethernet-Connectors-Modular-Connectors-RJ45-RJ11_CONNFLY-Elec-DS1128-04-S8B8P-X_C86576.html"/>
+    <hyperlink ref="O25" r:id="rId36" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-C50982_C50982.html"/>
+    <hyperlink ref="O23" r:id="rId37" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_Ckmtw-Shenzhen-Cankemeng-C124383_C124383.html"/>
+    <hyperlink ref="Q23" r:id="rId38" display="https://lcsc.com/product-detail/Pin-Header-Female-Header_BOOMELE-Boom-Precision-Elec-C35165_C35165.html"/>
+    <hyperlink ref="Q29" r:id="rId39" display="https://lcsc.com/product-detail/Ethernet-Connectors-Modular-Connectors-RJ45-RJ11_CONNFLY-Elec-DS1129-05-S80BP-X_C86580.html"/>
+    <hyperlink ref="O26" r:id="rId40" display="https://lcsc.com/product-detail/Pluggable-System-Terminal-Block_Ningbo-Kangnex-Elec-WJ126V-5-0-2P_C8404.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="71" fitToHeight="0" orientation="landscape" r:id="rId41"/>
+  <tableParts count="1">
+    <tablePart r:id="rId42"/>
+  </tableParts>
+</worksheet>
 </file>